--- a/modele/audit.xlsx
+++ b/modele/audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B61C05A-3F67-41D2-ABBA-E2C1ED5E8686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F113EFD-2130-41ED-9A43-D88213ECD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="3" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="53" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="306">
   <si>
     <t>id</t>
   </si>
@@ -1126,6 +1126,39 @@
   <si>
     <t>nj</t>
   </si>
+  <si>
+    <t>PeriodeConstruction</t>
+  </si>
+  <si>
+    <t>AVANT_1948</t>
+  </si>
+  <si>
+    <t>APRES_2021</t>
+  </si>
+  <si>
+    <t>ENTRE_1948_1974</t>
+  </si>
+  <si>
+    <t>ENTRE_1975_1977</t>
+  </si>
+  <si>
+    <t>ENTRE_1978_1982</t>
+  </si>
+  <si>
+    <t>ENTRE_1983_1988</t>
+  </si>
+  <si>
+    <t>ENTRE_1989_2000</t>
+  </si>
+  <si>
+    <t>ENTRE_2001_2005</t>
+  </si>
+  <si>
+    <t>ENTRE_2006_2012</t>
+  </si>
+  <si>
+    <t>ENTRE_2013_2021</t>
+  </si>
 </sst>
 </file>
 
@@ -2113,8 +2146,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5CD72330-B17B-4CAF-A601-13A0F76A9B94}" name="enums" displayName="enums" ref="A1:D12" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
-  <autoFilter ref="A1:D12" xr:uid="{5CD72330-B17B-4CAF-A601-13A0F76A9B94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5CD72330-B17B-4CAF-A601-13A0F76A9B94}" name="enums" displayName="enums" ref="A1:D22" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:D22" xr:uid="{5CD72330-B17B-4CAF-A601-13A0F76A9B94}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C97D3A45-57F5-45ED-A2A8-198920F48A6E}" name="enum" dataDxfId="62"/>
     <tableColumn id="2" xr3:uid="{00EC7B69-835D-47D8-913A-D33E8DC6FAF7}" name="const" dataDxfId="61"/>
@@ -2530,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B8A807-0A1B-42B1-8C76-A05CFA0C74D1}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3796,16 +3829,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26749610-055A-4E24-A314-B2AD6579BF1C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3955,6 +3988,126 @@
         <v>288</v>
       </c>
       <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6094,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2D2CCF-2FC3-4374-A6EB-7A59ED0C1D31}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7860,8 +8013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606F145D-7D4E-47B4-9EB4-BA76FF65D0A5}">
   <dimension ref="A1:X577"/>
   <sheetViews>
-    <sheetView topLeftCell="D145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V146" sqref="V146:V157"/>
+    <sheetView topLeftCell="D43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
